--- a/yield_prediction/results/graph_descriptors/WLlinear_4/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLlinear_4/out_of_sample/additive/plate_1/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.642</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.922</v>
+        <v>15.055</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.666</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.23</v>
+        <v>17.47</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.944</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.063</v>
+        <v>4.908</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.833280782078</v>
+        <v>15.10687096546546</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15.84472154728895</v>
+        <v>18.28457030634796</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.27771071537854</v>
+        <v>30.39018288452345</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8757354527358672</v>
+        <v>1.414861527389931</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.22629240854701</v>
+        <v>19.99930867457039</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21.67585838722926</v>
+        <v>24.54910632823314</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.795677345408187</v>
+        <v>8.106179412337077</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.16046576840502</v>
+        <v>32.10293712805203</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.17634341818228</v>
+        <v>38.08894624525647</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12.99097318542174</v>
+        <v>18.31308144972446</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>21.17956673053759</v>
+        <v>22.79752578353648</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>20.92354671268123</v>
+        <v>22.47439575447474</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>11.28983391215721</v>
+        <v>12.48199785433752</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>14.41305424390348</v>
+        <v>14.44379747838834</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>27.06706985117719</v>
+        <v>32.35681735931091</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.80711935589012</v>
+        <v>13.25061602350097</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.21266538101497</v>
+        <v>25.54647795537497</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.16773986852685</v>
+        <v>32.75068192103039</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.118184922643785</v>
+        <v>2.556172273669372</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10.8931071951411</v>
+        <v>9.197855859487365</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16.71281658349527</v>
+        <v>14.10329112408625</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.3912789757108683</v>
+        <v>2.027962844814482</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>18.67309755311789</v>
+        <v>16.27027051988365</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>15.93496606940715</v>
+        <v>16.59296749149659</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.45026635789255</v>
+        <v>27.13907612940126</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.65716691221493</v>
+        <v>30.1024952833594</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.015403919101395</v>
+        <v>1.057397370089294</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>31.54478105907439</v>
+        <v>33.29959723660279</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.08916360395332</v>
+        <v>34.19675764893906</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6.002950465770564</v>
+        <v>6.824051631146165</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>44.65401857478767</v>
+        <v>46.86215070160492</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>45.53039683070815</v>
+        <v>47.43795768112153</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43.22082413013382</v>
+        <v>46.86408633722031</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>51.41894012292834</v>
+        <v>51.38938660374885</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>51.3239249792268</v>
+        <v>51.32189683288247</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>21.49624387498173</v>
+        <v>22.51442256633564</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>44.03594600684439</v>
+        <v>42.82545510042961</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>50.98378205632876</v>
+        <v>52.4620305505258</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>17.97012135747492</v>
+        <v>15.66855916090977</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.82916622084139</v>
+        <v>33.72588629162345</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>38.31491438180527</v>
+        <v>36.21669255156121</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6.731486262111076</v>
+        <v>2.84566503926543</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.5933274238239</v>
+        <v>28.71956883048409</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.64411608283834</v>
+        <v>34.21494012050496</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5.814346881504875</v>
+        <v>3.837027535742951</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>43.48906328238132</v>
+        <v>44.70695669419729</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>11.45644857192917</v>
+        <v>8.845522201350818</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>21.72357902490925</v>
+        <v>21.98867353812285</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.14369500884137</v>
+        <v>26.66870356978838</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.5159205735932417</v>
+        <v>-0.1061821587509542</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.08143787766736</v>
+        <v>31.49650860390789</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>34.76236927471018</v>
+        <v>35.34372100098602</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6.660155311734719</v>
+        <v>6.751058737126801</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>46.36914065221195</v>
+        <v>47.88629949810009</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>49.86006351441507</v>
+        <v>51.3550071487921</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>46.91181589774331</v>
+        <v>49.05775883176905</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>52.69472896510889</v>
+        <v>51.66775229521014</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>56.86195198766308</v>
+        <v>55.30202754808866</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>13.74559041778563</v>
+        <v>13.36019800722324</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>39.21391743818113</v>
+        <v>36.63658782989365</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>48.63642768204595</v>
+        <v>48.18916329708189</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>13.45092768314974</v>
+        <v>10.68271924615429</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.67493537811508</v>
+        <v>30.57493951589888</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>37.15385505172044</v>
+        <v>34.7971200404348</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4.350245280560497</v>
+        <v>1.981648862597343</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.77818722326083</v>
+        <v>25.19895485373917</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>38.89516582931791</v>
+        <v>36.88518211202398</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5.609735999032289</v>
+        <v>5.087948790254256</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>43.576248543312</v>
+        <v>44.70169694380294</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3.200276952983089</v>
+        <v>4.210165102052031</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>14.61987701254306</v>
+        <v>14.57197762079565</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.2277203822931</v>
+        <v>22.8925738101829</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.1463529482460473</v>
+        <v>0.3793522868780492</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>27.45542334024668</v>
+        <v>29.05749339758511</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>36.61115234848006</v>
+        <v>35.8943115753251</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1.082115148299586</v>
+        <v>1.166422095195248</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>39.28480763221364</v>
+        <v>42.58769812038894</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>46.8534814997061</v>
+        <v>48.76261055222275</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>35.75897679708368</v>
+        <v>35.56525282990208</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>41.45505777490749</v>
+        <v>39.37293635903636</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>46.36937039776139</v>
+        <v>41.81874429119539</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>7.227969037885721</v>
+        <v>5.515897775213464</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>27.30625050979432</v>
+        <v>28.24148079345773</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>45.17874446897285</v>
+        <v>45.0601693179846</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>9.516920407274064</v>
+        <v>6.400999791152248</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.12065425287161</v>
+        <v>27.26345194928318</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>36.74201810396312</v>
+        <v>35.50089608209096</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>7.409870196379437</v>
+        <v>3.068477882641123</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>25.61476664956663</v>
+        <v>24.31783675350908</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>40.30887817839583</v>
+        <v>37.73902133352854</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>4.053785636780443</v>
+        <v>2.050815228899225</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>37.46997668418913</v>
+        <v>37.59440387802908</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>27.89292887534766</v>
+        <v>23.9767507763179</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>17.03351100151975</v>
+        <v>17.42523856527213</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>30.96898829452763</v>
+        <v>30.48994636873517</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>33.88098244053053</v>
+        <v>35.8668916936688</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>4.513157769697706</v>
+        <v>4.126941399782133</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>17.07099166366483</v>
+        <v>13.2467421876858</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>22.41893534135308</v>
+        <v>21.41876707146787</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>14.02523331483466</v>
+        <v>9.991377621116538</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>19.22689203501402</v>
+        <v>20.46978147623972</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.67942766721103</v>
+        <v>33.23288331266755</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.7036140558050619</v>
+        <v>1.462485278951011</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>8.693920416818393</v>
+        <v>8.269888700740495</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>14.9732679807303</v>
+        <v>13.45035481799015</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-1.911002551293517</v>
+        <v>0.4731084275387154</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>20.32705252987351</v>
+        <v>17.66028273615299</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>35.31164023968773</v>
+        <v>33.72389863021458</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>22.90513644436962</v>
+        <v>23.11063652720089</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>39.95100896799232</v>
+        <v>41.15097085750448</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>46.27826096253339</v>
+        <v>48.02342550081211</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1.501958182814963</v>
+        <v>3.735955356052681</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>15.73002464230305</v>
+        <v>15.80146252262636</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.24133334985749</v>
+        <v>26.07016629855368</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>54.48016695986169</v>
+        <v>53.17206931516395</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>47.44826308647891</v>
+        <v>50.77061592855816</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>57.23464801086401</v>
+        <v>60.01311791689351</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>60.52636202642186</v>
+        <v>60.78817952555531</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>19.43040706338016</v>
+        <v>18.30800229537758</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>54.35714587768678</v>
+        <v>54.19875660108112</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>58.66921018736021</v>
+        <v>59.08021418481341</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>21.46120373873947</v>
+        <v>18.89849880281686</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>38.59328299622518</v>
+        <v>37.54940891268139</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>45.17639524957365</v>
+        <v>43.07264478542126</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>8.595694330625076</v>
+        <v>4.44502145335677</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>39.24015758080074</v>
+        <v>40.92079760384333</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>44.16224810853415</v>
+        <v>43.7377006543599</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>10.03753827869771</v>
+        <v>7.218956895613633</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>57.53644748716862</v>
+        <v>60.71032487294889</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>68.00477883933793</v>
+        <v>65.24571093727472</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>74.36143967927029</v>
+        <v>77.61173153378337</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>82.6250064632726</v>
+        <v>81.71945804407757</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>86.49007641294408</v>
+        <v>84.81960285840375</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.22162237109178</v>
+        <v>29.52421935885408</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>70.07171961870263</v>
+        <v>72.39189978989366</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>79.21239826515048</v>
+        <v>77.12095737741507</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>59.44391236166514</v>
+        <v>58.42122280525631</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>43.65066802330206</v>
+        <v>44.73568666221192</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>50.17692593518551</v>
+        <v>51.63303362275748</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>59.4711887531714</v>
+        <v>60.05637246151514</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>12.15890921236341</v>
+        <v>9.574820002111043</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>50.33855392998598</v>
+        <v>50.06373958397967</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>58.8042099789848</v>
+        <v>58.03546230391295</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>16.46551428766769</v>
+        <v>12.90090932175788</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>35.91878894225628</v>
+        <v>34.87345896156786</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>45.31946930961551</v>
+        <v>42.30239509331773</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>5.532986801653415</v>
+        <v>2.09457055753067</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>37.99158466297389</v>
+        <v>38.0106858614424</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>47.85031961608111</v>
+        <v>46.69196229155691</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>8.935369953315615</v>
+        <v>7.096524421839572</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>59.35332750640377</v>
+        <v>62.37276177157159</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>73.77050593497493</v>
+        <v>71.16227148461269</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>75.59283851963663</v>
+        <v>78.02653914209608</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>80.76448029201438</v>
+        <v>79.69373612221239</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>90.59516593426669</v>
+        <v>88.53092805364719</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>20.48827764774221</v>
+        <v>16.68985293717979</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>67.78372915578889</v>
+        <v>68.57988218921248</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>81.98062288207495</v>
+        <v>80.22513453367084</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>54.82700663702655</v>
+        <v>55.87488412270463</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.59596391807746</v>
+        <v>26.04736669249225</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.01811612813755</v>
+        <v>33.37621320032964</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>48.01620379550354</v>
+        <v>45.84827358238404</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>8.726006224942012</v>
+        <v>4.915854420478492</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>42.79623847190214</v>
+        <v>45.74113728062464</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>54.44650044415036</v>
+        <v>56.97861183771151</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>11.12525926458242</v>
+        <v>8.190799310262801</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>32.97505063509401</v>
+        <v>32.85198705172974</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>47.36519959531888</v>
+        <v>45.42608647211269</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>6.838061253686213</v>
+        <v>2.660761073697667</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.40521674754843</v>
+        <v>34.63457696814191</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>50.45564517892057</v>
+        <v>48.92075008819326</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>4.844582818791771</v>
+        <v>2.914701751046248</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>50.11137874262913</v>
+        <v>52.87417502899889</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>71.4324801845128</v>
+        <v>70.98234722569602</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>57.55793798644553</v>
+        <v>60.06959202727727</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>68.57089647172307</v>
+        <v>69.39443041328947</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>85.74852969191102</v>
+        <v>87.09950076940063</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>9.621267671559444</v>
+        <v>5.970489550864851</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>53.96184590676886</v>
+        <v>56.16643371344959</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>76.34484965293865</v>
+        <v>77.27559961185968</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>12.31145082515763</v>
+        <v>12.9970318822308</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>18.21302131849373</v>
+        <v>18.22774496151132</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>30.12641558036291</v>
+        <v>31.12736359518009</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>3.610548448038799</v>
+        <v>0.9924357110402759</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>23.74287595604933</v>
+        <v>22.96900227813324</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>27.87622572874597</v>
+        <v>27.27479932536894</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>11.0278540550423</v>
+        <v>7.600625066939454</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>41.10882209141516</v>
+        <v>39.725787704006</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>45.10557062914506</v>
+        <v>45.90979182320895</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.48558101709032</v>
+        <v>27.56105087129768</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>34.95172505868472</v>
+        <v>35.40119431681477</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>35.62545705408888</v>
+        <v>35.68029392690424</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>16.33576003199201</v>
+        <v>18.00667825096562</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>22.89267745051035</v>
+        <v>20.60863301592659</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>40.4250634799253</v>
+        <v>42.58813536052332</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>11.48224255677289</v>
+        <v>12.75497130824152</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>23.60387816142115</v>
+        <v>26.11486598480155</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.59342468848399</v>
+        <v>31.02036106595931</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-3.159031064091295</v>
+        <v>-2.074182097699104</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>11.56954460570844</v>
+        <v>11.22941380507422</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>15.08755302434136</v>
+        <v>15.03267956104252</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-0.1574924958793389</v>
+        <v>1.298057000753985</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>27.62514018502127</v>
+        <v>28.12990042442481</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>13.07563608836457</v>
+        <v>14.30066504671153</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>25.41697021635487</v>
+        <v>23.62254971817896</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>32.38259262528129</v>
+        <v>30.74163539779546</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>4.511952422385438</v>
+        <v>1.014906511993683</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>36.58492157514296</v>
+        <v>34.73655472343883</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>37.28720925937574</v>
+        <v>35.18188460222816</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>11.75761440118588</v>
+        <v>6.955320592344467</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>53.44709597746839</v>
+        <v>50.23579464018196</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>53.99262962051537</v>
+        <v>52.50179826323027</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>52.4862877248092</v>
+        <v>50.31750535165293</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>57.65332705480185</v>
+        <v>56.10659133756369</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>59.57725561761957</v>
+        <v>56.50933240029732</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>21.44904189419784</v>
+        <v>22.50965804494213</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>46.31892738831687</v>
+        <v>42.0398504971938</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>55.1848495334615</v>
+        <v>53.31033957893379</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>15.3944390435803</v>
+        <v>15.27809776637258</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>35.05035631014912</v>
+        <v>32.88783306862366</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>38.4457617613691</v>
+        <v>35.4618305332764</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.9212147871175809</v>
+        <v>-0.2322220040390413</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>32.10718827072905</v>
+        <v>32.3316494696746</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>35.22556445827389</v>
+        <v>35.78836359517642</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>6.597909159386848</v>
+        <v>3.031675313154548</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>51.23344629459692</v>
+        <v>51.57454593119499</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>6.675171593823688</v>
+        <v>6.045430499293783</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>19.96666301535596</v>
+        <v>17.90885834766475</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>28.52381922111198</v>
+        <v>26.89209485003695</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>1.960860417515903</v>
+        <v>-0.6461142625336613</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>33.34364217163298</v>
+        <v>32.39997190389265</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>37.13705271750073</v>
+        <v>35.07770897277265</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>9.560919545432004</v>
+        <v>6.175136785213713</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>51.30650437871498</v>
+        <v>49.08580627197131</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>54.70382470396294</v>
+        <v>54.88233919296506</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>53.59967411746723</v>
+        <v>52.92213028850342</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>56.22564296187196</v>
+        <v>56.77192373291132</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>62.7457763148026</v>
+        <v>60.93917838993275</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>11.72806836791768</v>
+        <v>13.13370245161547</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>38.82136953091772</v>
+        <v>35.38784076572261</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>49.20759806548045</v>
+        <v>47.39071710979523</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>9.561275848570656</v>
+        <v>9.422561814189425</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.82947341535952</v>
+        <v>29.01000440825884</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>35.45240683443635</v>
+        <v>33.27933761615543</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-2.56623600467443</v>
+        <v>-1.717597810157535</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>27.41068918408038</v>
+        <v>27.56360600910712</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>35.18719099677809</v>
+        <v>36.2953761761075</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>4.546936118666764</v>
+        <v>2.939202746080305</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>48.38213424301983</v>
+        <v>48.29445276752956</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0.1914130185156253</v>
+        <v>2.663532048691412</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>14.68856492860621</v>
+        <v>13.28597502451823</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>27.45910468367738</v>
+        <v>26.26198689424773</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>1.195268587598811</v>
+        <v>-0.5841875383360779</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>30.19439062868326</v>
+        <v>30.97937350097881</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>39.24677121487919</v>
+        <v>37.66568654758689</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>5.647693515042757</v>
+        <v>0.7675853152925249</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>46.01562084287567</v>
+        <v>44.13276475029578</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>53.80650807870713</v>
+        <v>54.00940805486158</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>46.79171660899596</v>
+        <v>44.86801787954032</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>50.94252584301954</v>
+        <v>51.18122394905461</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>57.39432916125406</v>
+        <v>54.82190090448696</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>8.792025238583925</v>
+        <v>9.275546818317661</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>31.02949058228597</v>
+        <v>31.43535129064527</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>50.70729292773505</v>
+        <v>50.34798002132553</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>3.717526863469715</v>
+        <v>5.861371632760775</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>23.76322725619265</v>
+        <v>25.81784921314872</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32.16893858680403</v>
+        <v>32.26499946755618</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-4.009285773181361</v>
+        <v>-2.422152163354607</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>21.32964537424343</v>
+        <v>23.26347217412084</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>31.3789424761123</v>
+        <v>32.10754696824452</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-0.008718286337789038</v>
+        <v>-0.8031545006168024</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>38.75357552967568</v>
+        <v>38.82654231861808</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>32.91386183213126</v>
+        <v>32.464508193933</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>23.82133790695472</v>
+        <v>23.10348586261059</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>36.63893882918935</v>
+        <v>38.57889487255656</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>36.39760041528137</v>
+        <v>38.07299800446668</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>8.722161205406834</v>
+        <v>9.065497439865805</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>23.20254739614577</v>
+        <v>19.41588414092264</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>30.14848608620739</v>
+        <v>28.29784841677379</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>13.63446920875676</v>
+        <v>11.69283531059004</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.70749189349551</v>
+        <v>24.89273698204408</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>36.77750849679502</v>
+        <v>38.01781303011846</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-5.609871169803395</v>
+        <v>-1.865377999226869</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>12.62105189650933</v>
+        <v>11.93361680305246</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>19.14786891222899</v>
+        <v>18.86493517838347</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.2002004391324661</v>
+        <v>1.054367695828059</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>33.70390092251444</v>
+        <v>30.06718989716212</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>47.05422005265737</v>
+        <v>46.1028317449164</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>30.2085640098729</v>
+        <v>27.8026320763787</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>46.25248768296252</v>
+        <v>46.40692177442179</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>52.04659460736035</v>
+        <v>54.84015252957025</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>6.528086793133184</v>
+        <v>6.991977031609697</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.20185540032948</v>
+        <v>26.63991862151419</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>40.95133896907559</v>
+        <v>39.71880777393181</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>57.18921230467073</v>
+        <v>57.17531321968517</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>51.8530566861356</v>
+        <v>53.92496686485856</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>59.79483654305648</v>
+        <v>61.23568219457978</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>60.46284453616872</v>
+        <v>59.748525014094</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>19.82788134321099</v>
+        <v>20.26411544375623</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>56.03212658593136</v>
+        <v>55.9489288567538</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>59.59344275229488</v>
+        <v>59.13633841768477</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>19.17455452352517</v>
+        <v>18.35861771838796</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>41.06284462480456</v>
+        <v>36.83744070690452</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>48.58690000755509</v>
+        <v>44.14656928557886</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>2.058535638238183</v>
+        <v>0.5845107371993414</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>42.44781147350985</v>
+        <v>42.70790618388222</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>45.33914346269157</v>
+        <v>44.40222237251174</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>9.446574569864467</v>
+        <v>6.240056092525034</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>66.34730268964695</v>
+        <v>64.32065566905268</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>73.59383528267858</v>
+        <v>68.92337010050248</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>74.80272213406681</v>
+        <v>73.71411476636317</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>81.54566567336065</v>
+        <v>79.06517094574738</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>86.74407272187119</v>
+        <v>83.88800050985046</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.19684848732756</v>
+        <v>27.33779427143629</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>76.57954880806038</v>
+        <v>76.49770473787737</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>80.78411630557542</v>
+        <v>78.38670858451169</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>59.14608355314157</v>
+        <v>59.63509098802511</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>46.83078635765794</v>
+        <v>48.05322905684328</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>51.2177215984525</v>
+        <v>52.62320167806065</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>57.9065248359958</v>
+        <v>58.13656591904977</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>10.94058615662576</v>
+        <v>10.78561896579268</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>49.89404051620578</v>
+        <v>50.21741473362741</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>56.78403664791664</v>
+        <v>56.14428065250159</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>12.43804447423886</v>
+        <v>11.57961303225227</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>36.01698331109188</v>
+        <v>33.42927178087979</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>46.18684241427375</v>
+        <v>42.49404870721432</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-2.633330280519605</v>
+        <v>-2.037183383284049</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>38.94049543895014</v>
+        <v>39.00965515133994</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>45.93789504014392</v>
+        <v>44.88885907935301</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>6.220946386255157</v>
+        <v>5.050633265445224</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>65.05730041899967</v>
+        <v>63.27476327346565</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>75.77919906033696</v>
+        <v>72.15232712909867</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>74.13511406300412</v>
+        <v>73.10648710370121</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>77.76874292872245</v>
+        <v>77.79889297325492</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>88.90582014755363</v>
+        <v>86.64977159643047</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>17.97257921700598</v>
+        <v>14.2605245701739</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>72.55106817134376</v>
+        <v>73.06192322255934</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>80.06767098703679</v>
+        <v>79.46406198659504</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>51.12570119064381</v>
+        <v>53.28013117351347</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.68889688061034</v>
+        <v>28.27475809914243</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>36.49364385165347</v>
+        <v>35.78481167939866</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>43.8593861958676</v>
+        <v>40.80545690027039</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>6.40511226690613</v>
+        <v>5.80436604718189</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>40.51503767874097</v>
+        <v>42.25288081041415</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>50.56100008810359</v>
+        <v>50.29127392512653</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>9.123053856307482</v>
+        <v>7.395350862784621</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>35.33380811564981</v>
+        <v>32.89347748513829</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>49.58233493996291</v>
+        <v>45.2435029992897</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1.224226865182544</v>
+        <v>-0.7746453722506708</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>35.79389183869155</v>
+        <v>36.95525672962371</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>48.03705435366724</v>
+        <v>46.41137591370286</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>4.400022229727522</v>
+        <v>1.612100935910714</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>58.50094127238165</v>
+        <v>57.17140786781576</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>75.45291701889384</v>
+        <v>72.36540512811911</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>60.71592855269446</v>
+        <v>60.83532208525298</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>71.2582842836579</v>
+        <v>73.74256211256311</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>86.1859434347727</v>
+        <v>86.68540852754414</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>11.55747471197258</v>
+        <v>7.5460376031543</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>64.3027051523686</v>
+        <v>65.80990370287931</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>79.61057136751643</v>
+        <v>81.10241885957251</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>8.508244389752374</v>
+        <v>7.717527884723889</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>10.56514811780379</v>
+        <v>9.754696041070805</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>21.8397037116484</v>
+        <v>20.78392271593392</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-1.809041260212183</v>
+        <v>-1.371668689097469</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>12.15554308470394</v>
+        <v>10.77626866640112</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>16.11619246544675</v>
+        <v>14.67207818414181</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>4.000242479284012</v>
+        <v>3.037763841541977</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.8259365335327</v>
+        <v>25.69012462918904</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>32.58927769996006</v>
+        <v>30.75879957792927</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>19.54501433129386</v>
+        <v>15.50042434650945</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.02740217866437</v>
+        <v>23.57838247749523</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>26.10909513497167</v>
+        <v>24.68456229567794</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>8.010190895113087</v>
+        <v>10.38317339014712</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>13.53955439625997</v>
+        <v>9.24720263861607</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>26.81856793637195</v>
+        <v>25.94283658224012</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>12.38038784436532</v>
+        <v>12.79358627383377</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.94042170076624</v>
+        <v>26.56823505957039</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>30.72381029091679</v>
+        <v>31.51589652869959</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-3.2324533632856</v>
+        <v>-2.25120712511384</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>12.22104685351247</v>
+        <v>11.63698199039532</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>15.59163747627457</v>
+        <v>15.98079090982604</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.07959549517676479</v>
+        <v>1.205211934486112</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.94345357868065</v>
+        <v>29.9515735170246</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>9.678400147686844</v>
+        <v>9.93928807513792</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>19.00560155219375</v>
+        <v>16.33814586027979</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>25.19100628174011</v>
+        <v>21.58051748271408</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>0.9525747821867405</v>
+        <v>-0.662029723183128</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>27.81140300484168</v>
+        <v>24.68519765957793</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.2643692100937</v>
+        <v>24.69528780761002</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>5.928339620360287</v>
+        <v>2.869015718275342</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>43.42230128057996</v>
+        <v>38.26523542824219</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.4503298227612</v>
+        <v>38.84222393889964</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>44.8428185141335</v>
+        <v>37.84102493759302</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>48.9907968137899</v>
+        <v>44.31654397513536</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>51.34840692261928</v>
+        <v>45.81491039781488</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>13.17485801552058</v>
+        <v>14.28191100290877</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>37.8326275724596</v>
+        <v>30.51351794159925</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>42.86654792443849</v>
+        <v>37.40275236754813</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>15.85767405132671</v>
+        <v>15.57283705727993</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>38.00198295537174</v>
+        <v>34.23574774090338</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>40.84177860861935</v>
+        <v>36.35566200437813</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1.460350573571965</v>
+        <v>-0.7845433626814007</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>34.69490301005629</v>
+        <v>34.26398928164561</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>37.33988378526473</v>
+        <v>37.45786573714315</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>6.803154884538074</v>
+        <v>2.345552711465441</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>54.88423875826081</v>
+        <v>54.47345859670905</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>4.338948847122161</v>
+        <v>3.17641538556239</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>14.67477974739162</v>
+        <v>11.69363907417394</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>22.4667320685279</v>
+        <v>18.84565736287239</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-0.2133084589050185</v>
+        <v>-1.547404897898545</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>26.07478602098557</v>
+        <v>22.83443404157629</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.6271370058411</v>
+        <v>24.97166543472904</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>5.12871006651115</v>
+        <v>3.63147873399334</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>42.76787395301307</v>
+        <v>38.58071638843352</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>45.64179152309883</v>
+        <v>42.59366570928782</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>47.1886983549958</v>
+        <v>41.6453933508193</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>48.89635326661608</v>
+        <v>46.02371828028511</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>55.86970615292207</v>
+        <v>51.3210980949644</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>4.710803747468493</v>
+        <v>6.649564163502529</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>31.54815253624637</v>
+        <v>25.03986918715134</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>38.25082225126222</v>
+        <v>32.84004784287718</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>11.29215972931378</v>
+        <v>11.39244413749264</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>33.20372676995508</v>
+        <v>32.3097781347752</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>39.11328458173445</v>
+        <v>35.66286101757318</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-0.3440378111871922</v>
+        <v>-1.142913743063012</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>31.90626645969238</v>
+        <v>31.02121779916542</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>39.02112725563889</v>
+        <v>38.7442600720245</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>6.395287609791069</v>
+        <v>4.183302000366155</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>53.8708141383225</v>
+        <v>53.55445571302887</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-1.430896073005201</v>
+        <v>0.5341740822547472</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>9.518879908184157</v>
+        <v>7.29105417456778</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>21.74688003173554</v>
+        <v>18.87904797615279</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-1.39714418511133</v>
+        <v>-1.552128054506174</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>21.81733655339746</v>
+        <v>19.71169709138079</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>30.91177017000799</v>
+        <v>27.16172774876557</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>1.339822394477014</v>
+        <v>-1.734741178067193</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>36.80339745028863</v>
+        <v>32.10976953336257</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>44.45938373347454</v>
+        <v>41.44018481114809</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>40.06473227740041</v>
+        <v>34.2768962920419</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>43.67890867078756</v>
+        <v>40.32324414888782</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>50.6967570869232</v>
+        <v>45.79799674035611</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>2.651659510726496</v>
+        <v>4.425007185946345</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>23.97660364556199</v>
+        <v>21.09128046256258</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>39.76068732743889</v>
+        <v>36.02251069033925</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>6.341380512637727</v>
+        <v>7.899708669570668</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.55100235863607</v>
+        <v>29.41923568349645</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>36.36419942308962</v>
+        <v>34.58012098605334</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-1.506673052556984</v>
+        <v>-1.695726767142482</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>25.42597587428874</v>
+        <v>26.1668104938162</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>34.97598064209456</v>
+        <v>34.16142641594463</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>2.491971867284636</v>
+        <v>0.3791814709739967</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>44.22556481297205</v>
+        <v>43.58142199251309</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>35.01778385164117</v>
+        <v>34.40409902093569</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.77345237101686</v>
+        <v>25.93294919677384</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>41.78542454430875</v>
+        <v>41.52853405096636</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>40.08634507238581</v>
+        <v>40.51903770966763</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>9.335025180316279</v>
+        <v>9.590759312802749</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>27.72080706243407</v>
+        <v>23.36421618207496</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>33.46303090650562</v>
+        <v>31.85682992401864</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>13.74343941418338</v>
+        <v>13.0998059063756</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>26.14337800963926</v>
+        <v>26.62409027056147</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>38.07456347533397</v>
+        <v>40.17335783698029</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-7.063814149593796</v>
+        <v>-3.239494284742182</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>12.49332059244468</v>
+        <v>12.13175298166221</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>18.11410004848076</v>
+        <v>16.69872235053668</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-2.062115117582938</v>
+        <v>-0.02216954464556053</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>33.69977981176822</v>
+        <v>32.27464909130984</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>46.15222332635172</v>
+        <v>47.12838494246591</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>34.29181430010958</v>
+        <v>30.72901512728913</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>50.67802772577436</v>
+        <v>49.98053038090083</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>53.61216528636595</v>
+        <v>55.54354992054988</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>4.668981565586975</v>
+        <v>6.20660650510052</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>32.03554844051801</v>
+        <v>29.65586043150661</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>42.22650305868597</v>
+        <v>40.86364621650763</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>60.08209516061714</v>
+        <v>59.29964127526236</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>57.52142209360493</v>
+        <v>56.93765367404154</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>65.5133473688194</v>
+        <v>64.53864455431196</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>64.40010108811086</v>
+        <v>62.15323196655609</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>19.80250230685229</v>
+        <v>20.10725011457729</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>61.10710522641853</v>
+        <v>60.0815756286222</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>63.72686118304043</v>
+        <v>62.74598209034716</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>19.15998114843465</v>
+        <v>19.60432187400661</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>43.77812162374936</v>
+        <v>39.11313808230356</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>50.74368535803701</v>
+        <v>47.14809665668333</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>2.171878562666976</v>
+        <v>0.1521098344128511</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>45.69010956850961</v>
+        <v>46.54522455426134</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>47.31808007467239</v>
+        <v>46.00184078874553</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>8.089243058846087</v>
+        <v>5.649981661113753</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>69.06544494449219</v>
+        <v>69.41962406677908</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>74.77856872054176</v>
+        <v>72.68188254836568</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>80.55264410065885</v>
+        <v>78.49217898370819</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>87.66480428835872</v>
+        <v>84.81048940159918</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>89.65130518954957</v>
+        <v>86.12429835254444</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>26.63657329763915</v>
+        <v>27.57378973580397</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>81.56940341281623</v>
+        <v>82.33547247772746</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>84.25702572716436</v>
+        <v>83.20064500882739</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>63.67677705528784</v>
+        <v>63.65610969503206</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>54.13349721425971</v>
+        <v>53.36530055859308</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>58.71121182379412</v>
+        <v>58.57833276544983</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>63.50810624100821</v>
+        <v>62.61773177236404</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>12.4884309744936</v>
+        <v>12.93346549087104</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>56.64405452732901</v>
+        <v>56.76315205751141</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>62.53847876583261</v>
+        <v>61.63332803233843</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>13.49853713094769</v>
+        <v>13.89023444035819</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>40.06720004992185</v>
+        <v>36.88903352778156</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>49.49487970433418</v>
+        <v>46.48526992836916</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-0.840643002999478</v>
+        <v>-1.632125906541521</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>44.19267851539036</v>
+        <v>43.9807344583819</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>49.73292823552183</v>
+        <v>47.28000671494766</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>6.480109535825648</v>
+        <v>5.969192271084847</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>69.70507450868136</v>
+        <v>70.25982984383782</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>78.6830177710974</v>
+        <v>77.51338925824898</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>81.52519361930106</v>
+        <v>79.85735232040022</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>85.70052700466732</v>
+        <v>85.49499902243137</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>93.50911257610838</v>
+        <v>90.34434631853564</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>17.95101067060791</v>
+        <v>16.27431981451394</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>79.43586816082926</v>
+        <v>81.00957287046863</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>85.32547768853314</v>
+        <v>86.06009974411991</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>55.88987502812236</v>
+        <v>56.70913773778729</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>37.22556218567212</v>
+        <v>34.56083925550443</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>44.74050683251793</v>
+        <v>42.21569426393425</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>50.49666589764094</v>
+        <v>46.62416978456436</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>8.97444466949802</v>
+        <v>8.852627291514889</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>47.63841740366258</v>
+        <v>48.86438517188456</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>56.32779850944279</v>
+        <v>54.71930241145769</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>10.32662580695234</v>
+        <v>9.226317033913492</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>38.84212915000951</v>
+        <v>35.48310889353277</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>52.51663727745329</v>
+        <v>47.92677841808435</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-0.1698389788144361</v>
+        <v>-0.7664773471028532</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>39.33105079034514</v>
+        <v>39.94489234040201</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>50.31025755878098</v>
+        <v>47.0239953783486</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>4.202165833725282</v>
+        <v>2.21638476115815</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>61.75536213801588</v>
+        <v>62.37654696123964</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>77.29026231166571</v>
+        <v>75.8979193370418</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>67.34227586115256</v>
+        <v>67.60396076366871</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>78.82883162912522</v>
+        <v>80.25899735962321</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>90.64981824459808</v>
+        <v>90.4452266893293</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>11.60352846778476</v>
+        <v>9.715916892745124</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>70.34461471792312</v>
+        <v>72.28468925662661</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>83.82516263561811</v>
+        <v>84.98891959580298</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>12.21529317622117</v>
+        <v>11.3013485624144</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>11.40141506630183</v>
+        <v>13.25986844587692</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>19.15485826243436</v>
+        <v>23.23598716425895</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>2.159743691671267</v>
+        <v>2.32577627574695</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>15.52540056227166</v>
+        <v>15.89161812957909</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>17.71047587434295</v>
+        <v>19.64624846353486</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>2.633086245599792</v>
+        <v>5.71248647200041</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.63412135165094</v>
+        <v>24.09500217022885</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>24.39504778319792</v>
+        <v>28.17075781522401</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>6.982486154082814</v>
+        <v>11.99314973368718</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>13.71195403558835</v>
+        <v>15.98622866461087</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>14.21494154808149</v>
+        <v>15.59222016032545</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>11.52251351779368</v>
+        <v>11.60760651685123</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>9.861803226656136</v>
+        <v>10.80842566239392</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>20.70964387910725</v>
+        <v>24.47447025788004</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>12.88960150416876</v>
+        <v>9.406344195639679</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>14.06113319268477</v>
+        <v>16.45904061967496</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>18.6842602596423</v>
+        <v>23.25151650906857</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>8.560941432190551</v>
+        <v>7.917465732713708</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>7.548170782987022</v>
+        <v>9.050890179198628</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>11.91886923912577</v>
+        <v>12.25227664412456</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-1.427698964140266</v>
+        <v>2.198366635387906</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>9.573093240404598</v>
+        <v>9.412612064958793</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>14.54918843849101</v>
+        <v>15.00523968314013</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>20.025227619879</v>
+        <v>23.26902313116544</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>22.84707864718245</v>
+        <v>26.13370073291254</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>2.409073297533794</v>
+        <v>2.739568909936391</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>27.73222686500839</v>
+        <v>28.45596962954192</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>27.12519981120647</v>
+        <v>29.94042189129351</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>5.200360038329425</v>
+        <v>6.12834857807913</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>37.0485208033522</v>
+        <v>38.91785146614025</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>36.01110728046478</v>
+        <v>39.28343792781874</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>34.52267398084652</v>
+        <v>37.73583138927501</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>41.07909144433068</v>
+        <v>41.88809316585022</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>42.3667655128847</v>
+        <v>42.64481233847997</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>21.03622065695093</v>
+        <v>21.99906302231047</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>36.87569520500634</v>
+        <v>37.05579541770142</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>42.11879502442767</v>
+        <v>44.22042520677518</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>13.13694556201742</v>
+        <v>12.39558209003508</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>20.73926552100034</v>
+        <v>22.2025243967669</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>24.00667635463368</v>
+        <v>25.69746493099025</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>6.981900564210207</v>
+        <v>6.323198540621583</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>20.94873929434083</v>
+        <v>22.22602315964659</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>26.40626423801807</v>
+        <v>26.95806200023442</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.58281226374908</v>
+        <v>31.03329514943737</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>12.28109424990774</v>
+        <v>10.28649509996961</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>19.43007816578531</v>
+        <v>21.2322495878642</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>23.25938880816719</v>
+        <v>25.5793337435254</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>3.358081607225785</v>
+        <v>3.158791227273422</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.73944724440745</v>
+        <v>28.5091222934273</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>30.96085326432222</v>
+        <v>32.48867110093022</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>7.616138057263136</v>
+        <v>8.461488313887575</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>40.50887833811251</v>
+        <v>42.46214828266844</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>41.83494968685195</v>
+        <v>45.44700804383785</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>39.28629598890252</v>
+        <v>41.21942976311861</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>43.34843597437018</v>
+        <v>43.242807978497</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>48.88655630465793</v>
+        <v>47.89641936454532</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>15.02381311688484</v>
+        <v>15.87977134006653</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>33.51008891022737</v>
+        <v>33.50099156075932</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>40.96387722833976</v>
+        <v>42.42573510175706</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>10.25990438156763</v>
+        <v>10.27067082759762</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>18.12024666252756</v>
+        <v>21.94804350739933</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>23.92758934632268</v>
+        <v>26.17978945349564</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>5.703244631728822</v>
+        <v>7.064951520605508</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>19.20892484462429</v>
+        <v>20.51633794290007</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.15179416785051</v>
+        <v>30.04286732527599</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>2.510833120887717</v>
+        <v>5.487810903851621</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.91579534074027</v>
+        <v>33.12500513674078</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>3.10744877214719</v>
+        <v>5.295682902006632</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>12.15685895785443</v>
+        <v>13.24696267183761</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>19.58108867806316</v>
+        <v>20.00707259187646</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>1.701672390920415</v>
+        <v>2.712129847783235</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>24.57571865350903</v>
+        <v>24.83657233871359</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>31.74176888595918</v>
+        <v>31.06191015617726</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>0.584068880214403</v>
+        <v>1.328060880999903</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>32.79498263025444</v>
+        <v>35.05350104984013</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>37.5222355114133</v>
+        <v>39.87822813649029</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.1532385312366</v>
+        <v>27.82238708334399</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>32.08870963867273</v>
+        <v>30.62817015675453</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>37.82966492356225</v>
+        <v>33.89012825195196</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>7.81455303552424</v>
+        <v>7.643219678362644</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>21.83417864091313</v>
+        <v>24.43643316732619</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>37.21003787348165</v>
+        <v>38.26739923875108</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>6.505846783322557</v>
+        <v>5.797696915211116</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>17.09642348228922</v>
+        <v>19.67757416000817</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>24.21050944870269</v>
+        <v>25.5313153297016</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>8.783971101737531</v>
+        <v>7.773842314534757</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>19.44142672213812</v>
+        <v>20.86637152821971</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>31.24422266373839</v>
+        <v>30.13048864034194</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>1.04883570598772</v>
+        <v>2.16602083828494</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.50948288325823</v>
+        <v>27.50072561837312</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>16.2756453832161</v>
+        <v>15.55745567077074</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>7.424185679426255</v>
+        <v>10.7526444672603</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>20.24328234104699</v>
+        <v>23.17740857823846</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>23.62366778140021</v>
+        <v>29.23290776042789</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>4.83323827245723</v>
+        <v>4.491914988898895</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>8.059874228901904</v>
+        <v>6.735627145488408</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>11.01426243930731</v>
+        <v>11.57562183386291</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>14.64270402941741</v>
+        <v>10.99271890000574</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>15.06393211006058</v>
+        <v>16.62542561660815</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>24.33266262222612</v>
+        <v>28.93975241475786</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>6.081145815087325</v>
+        <v>7.1784586758824</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>7.763984363187895</v>
+        <v>8.584175856368308</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>13.63099812349723</v>
+        <v>13.14161935822225</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-0.1121724022604766</v>
+        <v>1.970512634529261</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>14.69013568013941</v>
+        <v>13.12766621253924</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.65585970810631</v>
+        <v>29.42567512628116</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>15.52874099438876</v>
+        <v>16.50539328814051</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>31.31726821541974</v>
+        <v>35.18725577933488</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>38.52725790657405</v>
+        <v>42.37538206122197</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>3.386943295189592</v>
+        <v>5.809290586513594</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>8.52561249633689</v>
+        <v>10.13757267786957</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>19.59245070547924</v>
+        <v>18.46582124038264</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>37.20497891625983</v>
+        <v>39.41205224123642</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>31.54101574634243</v>
+        <v>35.98315577783416</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>39.75663984970382</v>
+        <v>44.75223136608025</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>44.24501239015818</v>
+        <v>47.70564412201702</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>15.36395979336708</v>
+        <v>15.87396867837325</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>37.86392387459463</v>
+        <v>38.91930322203966</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>39.76719460879916</v>
+        <v>41.66654237907868</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>20.08269710480435</v>
+        <v>19.82942424181113</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>30.10414551325244</v>
+        <v>29.84416101543399</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.77585161317211</v>
+        <v>37.19076960885029</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>10.78449324765555</v>
+        <v>8.640873333295172</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>32.67593466124723</v>
+        <v>34.78545776302226</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>37.14194041405788</v>
+        <v>38.4415437116082</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>8.478823869846636</v>
+        <v>7.601720438724517</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>45.72284594415181</v>
+        <v>49.33159921019913</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>55.5603996942025</v>
+        <v>56.54489858191293</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>60.76001370407164</v>
+        <v>64.47532656871935</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>67.49717151843663</v>
+        <v>70.39355696409473</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>73.35840720508432</v>
+        <v>75.52452644129791</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>26.76872052559033</v>
+        <v>29.99192657511332</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>55.27912958827613</v>
+        <v>59.37143597496657</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>62.8586409322634</v>
+        <v>63.38834747378876</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>42.87441079546724</v>
+        <v>45.64666466846796</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.74917343376915</v>
+        <v>31.80563398652241</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>33.53195420882006</v>
+        <v>37.7110383249846</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>43.77675195938853</v>
+        <v>47.88090095911636</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>9.333255133959485</v>
+        <v>10.11680059025446</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>34.69993599930491</v>
+        <v>36.70841579687743</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>40.22162867157376</v>
+        <v>41.73566949759436</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>16.56095742484678</v>
+        <v>16.0876364145636</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.656073418122</v>
+        <v>29.05978669236224</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>36.72597593053494</v>
+        <v>37.62458983508823</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>8.623873301556351</v>
+        <v>7.610318356770254</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>32.14392759534092</v>
+        <v>33.00485378429414</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>41.0107514042816</v>
+        <v>41.45720754067563</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>8.511058304708477</v>
+        <v>9.269391099565599</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>48.45001162814761</v>
+        <v>52.43565526562288</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>61.74921465479153</v>
+        <v>63.01894870182454</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>62.6932122800123</v>
+        <v>65.83308921598923</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>66.19428407148328</v>
+        <v>68.94701621928083</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>77.76964741569631</v>
+        <v>79.55954280432951</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>19.20200406089032</v>
+        <v>19.68077983706909</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>53.58013596007449</v>
+        <v>56.72567883489879</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>65.59859687395375</v>
+        <v>66.79632361897721</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>38.95170871400406</v>
+        <v>41.92236224039819</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>15.69960118913149</v>
+        <v>16.98936469732066</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>22.56739827973473</v>
+        <v>22.71702402696715</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>33.57408864581446</v>
+        <v>35.4797340045367</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>6.816346846958524</v>
+        <v>6.062905346678463</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.73636407239135</v>
+        <v>34.42673512972728</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>37.57232906571459</v>
+        <v>41.12460514096082</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>11.46819458345336</v>
+        <v>11.03381756300304</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>27.33831158981052</v>
+        <v>27.79092236969538</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.56540059000851</v>
+        <v>39.46952729683541</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>10.00584148841223</v>
+        <v>8.007830742853887</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>30.02288869401058</v>
+        <v>30.7475053651724</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>44.42629377177729</v>
+        <v>43.46844794142416</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>4.492054801915053</v>
+        <v>4.622679185270666</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>40.93289279555913</v>
+        <v>44.23846514729119</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>60.10517909552929</v>
+        <v>61.76823940642741</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>46.38495831856667</v>
+        <v>50.2269144373101</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>55.74541105137725</v>
+        <v>59.62134287523007</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>73.26172650688153</v>
+        <v>77.31615832458309</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>9.453367783787478</v>
+        <v>9.319285482450422</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>42.317711821305</v>
+        <v>45.51440643385321</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>61.7707293196433</v>
+        <v>64.2174011735365</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>11.36721799151625</v>
+        <v>11.92946394366664</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>11.11213437439303</v>
+        <v>13.78699000840063</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>21.53742750543584</v>
+        <v>25.49925726151317</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>2.427892795417918</v>
+        <v>3.592213268713394</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>17.72029377052212</v>
+        <v>18.51098313068621</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>20.81913075854602</v>
+        <v>23.34100605972365</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>1.528812402218982</v>
+        <v>5.726664409558637</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>24.82369415454305</v>
+        <v>27.07051723465029</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.37093758824267</v>
+        <v>31.71646640298695</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>9.298728097954911</v>
+        <v>14.0622966101326</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>16.51382361712206</v>
+        <v>18.9441755847842</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>18.25192851834202</v>
+        <v>18.31456999718049</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>10.50738109114182</v>
+        <v>12.68454850403262</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>11.23349777827511</v>
+        <v>11.31390040053196</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>22.6999163718626</v>
+        <v>27.18866327871161</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>16.62990374717075</v>
+        <v>12.89851110249295</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>22.32457604062369</v>
+        <v>22.31580382237551</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.16572405347783</v>
+        <v>29.41573788285026</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>10.6268296273499</v>
+        <v>9.261608138213678</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>15.70350685798739</v>
+        <v>14.87792734232836</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>19.62073827621926</v>
+        <v>18.19754658082571</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>2.172112339334141</v>
+        <v>3.52653375867196</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>20.99701738074945</v>
+        <v>18.23234655028052</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>13.32460181825396</v>
+        <v>14.9489141426545</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>20.11379622155682</v>
+        <v>23.57403064497905</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>24.98123914436287</v>
+        <v>27.04108807904299</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>2.217698269104623</v>
+        <v>3.476614327219867</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.35769041102843</v>
+        <v>31.54578630766677</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>30.10052395299052</v>
+        <v>32.81026222515568</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>3.395824623593366</v>
+        <v>5.331551748599498</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>39.41194231121338</v>
+        <v>41.97914588220699</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>39.46153949191162</v>
+        <v>42.01040064484464</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>36.8070238179603</v>
+        <v>40.93835291186647</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>43.20725238476808</v>
+        <v>44.69281247693205</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>45.39779481502802</v>
+        <v>45.02348439483561</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>18.53347261792499</v>
+        <v>22.14394751055525</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>38.1133976926562</v>
+        <v>38.18781798687546</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>43.04024583867243</v>
+        <v>45.84188308346516</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>18.54322385652195</v>
+        <v>16.29862768338826</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>31.51650498751329</v>
+        <v>29.44121910746413</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>35.18692184096313</v>
+        <v>31.72123221793189</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>10.68114843295714</v>
+        <v>8.552182220659102</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>31.83072371729277</v>
+        <v>31.23926633654732</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>36.08175557906017</v>
+        <v>34.39593477282036</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>42.5005562251406</v>
+        <v>42.99921538380448</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>10.52597286995557</v>
+        <v>9.148198868151297</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>19.27813337246202</v>
+        <v>20.77206615030099</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>25.07692830777851</v>
+        <v>25.96745264488759</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>2.859185350570918</v>
+        <v>3.34112740845034</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>31.33692075289733</v>
+        <v>31.07807096843103</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>33.87859197224304</v>
+        <v>35.11561644105245</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>5.406609412175591</v>
+        <v>6.795753370086192</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>42.74609038479791</v>
+        <v>44.94446019643659</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>45.07262201750347</v>
+        <v>47.79209723535745</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>41.49575089391581</v>
+        <v>44.59828269089806</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>45.38646329972108</v>
+        <v>46.29627218148799</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>51.90520571208305</v>
+        <v>50.49860944351764</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>11.98086459553886</v>
+        <v>15.08888802750139</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>34.54927874435334</v>
+        <v>34.20262965386667</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>41.65040732261251</v>
+        <v>43.58012377393625</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>15.63238073251291</v>
+        <v>13.45706665118061</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.19800198908855</v>
+        <v>28.9638925355147</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>35.26767575192373</v>
+        <v>32.00264814294616</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>9.642577112323831</v>
+        <v>8.92583232445169</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>30.67161904732629</v>
+        <v>29.52830245371256</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>39.31549097334753</v>
+        <v>37.63177293680133</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>7.668146379645853</v>
+        <v>7.349537123496543</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>44.28248421803951</v>
+        <v>45.15200028055733</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>2.335037806147469</v>
+        <v>4.535591515851223</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>12.54746488515197</v>
+        <v>13.16552926315373</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>22.44546752536442</v>
+        <v>21.71927675163629</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>2.657095184150322</v>
+        <v>3.684279007648879</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.11116028593403</v>
+        <v>27.84002245415381</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>36.10115406508248</v>
+        <v>35.19886162293619</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>0.03485166985078791</v>
+        <v>0.7725793931073959</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>36.15302267278048</v>
+        <v>38.53215871438987</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>42.41229517758318</v>
+        <v>43.81387603522965</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>31.69857629894807</v>
+        <v>31.94076468202006</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>36.22676474819266</v>
+        <v>35.19381460388392</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>43.25575873419111</v>
+        <v>38.47584442351521</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>6.946090293952132</v>
+        <v>8.003331773815095</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>24.22467153981466</v>
+        <v>25.84512091496735</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>40.11828095781645</v>
+        <v>41.1977205191982</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>10.76715287614909</v>
+        <v>8.811905162986609</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>26.79290743295689</v>
+        <v>26.71660374382985</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>34.62950011610693</v>
+        <v>32.01966404333218</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>11.74142171595888</v>
+        <v>9.236491506168694</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.47494081998166</v>
+        <v>28.65762814835754</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>40.43316945595434</v>
+        <v>37.29274250357361</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>5.308486064953794</v>
+        <v>3.570519354884894</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>38.58971517323425</v>
+        <v>38.39936106755357</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.45039713599293</v>
+        <v>24.63883382521906</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>19.00167058505077</v>
+        <v>18.67427304821117</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>34.32489931414465</v>
+        <v>33.97855540083539</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>37.95958124246017</v>
+        <v>39.24290617381911</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>10.30818857273264</v>
+        <v>8.142129230227837</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>19.92478289049161</v>
+        <v>15.12624921130674</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>22.88543046846827</v>
+        <v>20.550245608685</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>13.54532272088912</v>
+        <v>10.67414653496082</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>17.89861646975836</v>
+        <v>18.07355582908247</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>30.89715681784688</v>
+        <v>33.63022603070405</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>6.131799958891051</v>
+        <v>8.613748168472473</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>13.45463303104511</v>
+        <v>12.93300187138047</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>21.08969690851211</v>
+        <v>18.5972507953024</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-0.2092437262160551</v>
+        <v>1.775763635880462</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>21.52793613905258</v>
+        <v>18.27733676421343</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>38.83072433034931</v>
+        <v>37.3027274026601</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>23.04022787433295</v>
+        <v>22.18497706138016</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>43.10359560997301</v>
+        <v>43.95717491354789</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>51.56752404139611</v>
+        <v>52.07523733881736</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>2.724315403089594</v>
+        <v>6.30949462549675</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>17.15439291603587</v>
+        <v>17.21008615635352</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.08107183466536</v>
+        <v>26.03940811125453</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>50.93719615710631</v>
+        <v>50.03979639609434</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>45.92908463624199</v>
+        <v>47.84339660057574</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>55.53364350045364</v>
+        <v>57.06629855649395</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>59.91534453838228</v>
+        <v>58.97808160694152</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>21.80225787075685</v>
+        <v>20.78247641112771</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>52.23357671679825</v>
+        <v>50.32072517649037</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>53.19963328297752</v>
+        <v>52.06865271815344</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>19.57938794722432</v>
+        <v>18.62085034299877</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>34.75168432565073</v>
+        <v>32.21362755064614</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>43.37047799639449</v>
+        <v>41.09830835188171</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>11.6921573538968</v>
+        <v>9.9258591098022</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>40.62853509836893</v>
+        <v>41.6288912605193</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>46.21671733743263</v>
+        <v>44.95178311850067</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>8.679738523517514</v>
+        <v>6.276157400833814</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>54.29207099826538</v>
+        <v>56.17895526937242</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>66.56365559102416</v>
+        <v>64.56415187330087</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>69.55309640966016</v>
+        <v>71.30378991304937</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>79.70060896705689</v>
+        <v>78.47257176286728</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>86.35005624502243</v>
+        <v>83.96294554890346</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>25.40267338576746</v>
+        <v>28.75970150071592</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>65.5050002867421</v>
+        <v>68.13420759931959</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>73.02783849390923</v>
+        <v>71.20848744136345</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>56.88253335903632</v>
+        <v>56.2746405855389</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>43.50401015410644</v>
+        <v>43.97469342026491</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>49.59510551360295</v>
+        <v>50.2076559422692</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>59.78146375385413</v>
+        <v>59.26803282211509</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>15.6800205255487</v>
+        <v>14.36021945842519</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>49.39136870905245</v>
+        <v>48.16747935028903</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>16.04000321324291</v>
+        <v>14.42296093530473</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>33.5983872904125</v>
+        <v>31.34596528059667</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>44.45964453624163</v>
+        <v>41.5197879490064</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>9.790290621132336</v>
+        <v>8.917292268369575</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>40.66180089466589</v>
+        <v>40.05427556645887</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>50.59017484784887</v>
+        <v>48.5344179159118</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>8.810515491927958</v>
+        <v>7.78193292092045</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>57.42226186725973</v>
+        <v>59.45869032591125</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>72.97824843888439</v>
+        <v>71.24521538866782</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>71.80369788255574</v>
+        <v>73.12851995417134</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>78.63608320583469</v>
+        <v>77.53162051976892</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>90.99365233421976</v>
+        <v>88.31311655124915</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>17.81599024123663</v>
+        <v>18.137743509353</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>64.18857164867406</v>
+        <v>65.96951723351442</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>76.09689280098809</v>
+        <v>75.10993988353319</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>52.17918050533432</v>
+        <v>52.08220740348196</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.59082405250599</v>
+        <v>26.69223923616885</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>37.96703450162438</v>
+        <v>34.36709526472082</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>49.13493349536293</v>
+        <v>46.65702075808655</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>12.62995645882836</v>
+        <v>9.599596565995196</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>43.1561317355356</v>
+        <v>45.40610769444727</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>50.62013059370622</v>
+        <v>51.05907420496672</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>11.35218301620575</v>
+        <v>10.07905563067616</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>32.00726594606945</v>
+        <v>29.89365247519053</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>47.54233408799201</v>
+        <v>44.20302067365917</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>11.45694478660035</v>
+        <v>9.688971584861829</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>38.02241970197333</v>
+        <v>36.63997874645966</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>53.99878702042394</v>
+        <v>50.44632385284781</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>5.519493276835369</v>
+        <v>4.418720675430858</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>49.77882660093069</v>
+        <v>50.86295205589902</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>71.79303623313277</v>
+        <v>70.54791796865477</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>55.42861606259627</v>
+        <v>57.24302532371048</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>69.11387763841924</v>
+        <v>69.33818223337501</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>87.80829818225219</v>
+        <v>87.99062642859727</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>9.527976235167039</v>
+        <v>9.5441553129243</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>53.00178577820621</v>
+        <v>55.18677191576212</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>72.98739541888108</v>
+        <v>73.27415170293774</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>8.936917132225695</v>
+        <v>10.28950948863718</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>5.125546152065461</v>
+        <v>9.567415121640497</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>15.81160105819168</v>
+        <v>20.2965858191154</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>3.94305884863871</v>
+        <v>5.870652655204207</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>14.87649367714216</v>
+        <v>18.11042780053114</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>17.63394315927589</v>
+        <v>21.27931013271857</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>4.813280457150256</v>
+        <v>7.412016598725781</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>23.16242713616149</v>
+        <v>25.76490366205311</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>25.37212486984469</v>
+        <v>28.56556041654632</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>9.986395732850637</v>
+        <v>13.52921211298482</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>14.36991997368749</v>
+        <v>20.66325641001081</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>16.55637088192569</v>
+        <v>19.88230506427362</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>13.29782223466626</v>
+        <v>15.60739148357046</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>9.099105970416307</v>
+        <v>10.62926089444708</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>21.18723184570847</v>
+        <v>27.83227620512292</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>18.15026406630773</v>
+        <v>16.52826548974205</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>27.70289628846043</v>
+        <v>26.30863049425039</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>30.91620688405865</v>
+        <v>29.5208053016376</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>6.064846290709458</v>
+        <v>6.217848265439375</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>19.25693688391003</v>
+        <v>18.18476875547722</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>20.02965919680969</v>
+        <v>19.24780910153282</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>7.485649324919281</v>
+        <v>6.285391858127785</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>33.0298098050568</v>
+        <v>29.88965148853727</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>8.790289400612249</v>
+        <v>11.70496917822528</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>10.08445956195463</v>
+        <v>13.7125887900063</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>15.85052910848109</v>
+        <v>18.90165164178741</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>2.069387841381868</v>
+        <v>4.103409145882058</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>23.29058748648752</v>
+        <v>25.18791417880288</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>22.63958710765472</v>
+        <v>24.99378942628831</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>3.410502030338378</v>
+        <v>5.265353105948964</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>31.65168083548292</v>
+        <v>33.0291112107539</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>30.31332329487091</v>
+        <v>32.07354348179026</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>28.30449568573056</v>
+        <v>29.91588311198733</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>31.37925536656225</v>
+        <v>34.93913434602783</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>34.27786817965843</v>
+        <v>35.05469929520561</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>15.13065116599565</v>
+        <v>18.82360794893633</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>26.15120869169133</v>
+        <v>26.00554827795754</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>30.58498032506221</v>
+        <v>34.03183575719724</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>21.28259141194477</v>
+        <v>19.46016702622051</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>36.84940514269081</v>
+        <v>31.46730291452389</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>37.68129005889084</v>
+        <v>31.48886362008329</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>7.893744261280126</v>
+        <v>6.675141594644135</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>35.48464024308286</v>
+        <v>34.62089136902703</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>35.26429664888951</v>
+        <v>34.166831164944</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>11.95586374019573</v>
+        <v>7.015865922568185</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>52.20222073539001</v>
+        <v>49.470143743591</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>4.620948453225363</v>
+        <v>6.164913545885273</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>7.158964034861036</v>
+        <v>10.33316568677722</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>14.03558062356215</v>
+        <v>17.1206126950434</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>1.112074250512883</v>
+        <v>3.201009981418945</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>22.06989508846738</v>
+        <v>23.50234437551929</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>23.9698990840521</v>
+        <v>25.01176600793841</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>3.018717159084851</v>
+        <v>5.705377846726311</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>31.75491102612597</v>
+        <v>33.67991074341716</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>32.67422351789772</v>
+        <v>35.41932677849032</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>30.7815452333372</v>
+        <v>33.18229251308594</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>31.65499324578578</v>
+        <v>36.16662322510844</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>38.56244621325519</v>
+        <v>39.70887275338497</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>7.299408333910392</v>
+        <v>11.89424090226532</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>20.61087788003266</v>
+        <v>21.19630927930291</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>26.63402502660772</v>
+        <v>30.17366584713935</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>17.74991187599667</v>
+        <v>16.12866628630439</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>33.40803438061221</v>
+        <v>30.10792948880492</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>36.53877538587939</v>
+        <v>30.98040240266494</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>6.504251608366751</v>
+        <v>6.2792754367326</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>33.48519498013458</v>
+        <v>32.06569688358636</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>36.96605058695146</v>
+        <v>35.08987396414503</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>11.94407764486925</v>
+        <v>8.673935062349674</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>52.02406306717647</v>
+        <v>49.4483823519496</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-1.624242666058752</v>
+        <v>2.844068009922321</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>2.846265717620053</v>
+        <v>6.144276726794995</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>13.45717636116007</v>
+        <v>16.05907283103049</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>1.46239313970257</v>
+        <v>3.452588965100428</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>20.70995553807621</v>
+        <v>22.4508313232156</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>27.39068880787616</v>
+        <v>27.19890025932887</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-0.4071918030232169</v>
+        <v>0.6109684828940196</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>27.87253230796283</v>
+        <v>29.30559902492804</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>32.67256395326439</v>
+        <v>34.12124081635955</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>26.12965626291187</v>
+        <v>27.28025621581235</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>28.31216176984985</v>
+        <v>31.76060048085481</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>35.3221505987448</v>
+        <v>34.54424267288038</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>5.085999850240338</v>
+        <v>8.052567407440836</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>15.01685947911</v>
+        <v>17.00010902939895</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>29.51731062356007</v>
+        <v>32.92447079875604</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>11.92001449925859</v>
+        <v>12.54134546463732</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.8126942421719</v>
+        <v>28.95604531076557</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>34.41600164702763</v>
+        <v>30.87165381998824</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>5.934011914548556</v>
+        <v>5.772912328134669</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>29.86536001137089</v>
+        <v>29.94005090177501</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>35.28109620965459</v>
+        <v>32.53519540478662</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>7.926156688480164</v>
+        <v>4.947972866899224</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>44.96322004304879</v>
+        <v>42.77194552741244</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>35.21282922173722</v>
+        <v>31.46278415061497</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>29.09093113769181</v>
+        <v>26.06485924722162</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>42.07916799146741</v>
+        <v>39.91141198003309</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>41.24514340766868</v>
+        <v>39.78035635501375</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>19.66029443731083</v>
+        <v>14.91130534264251</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>31.04562446644677</v>
+        <v>24.02712869539197</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>32.39397481359269</v>
+        <v>28.48304200252027</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>17.0918415856962</v>
+        <v>16.1787952527995</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>25.80757819710852</v>
+        <v>24.9333924458893</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>38.29803320201272</v>
+        <v>38.47686370934031</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>2.332212193851866</v>
+        <v>5.748970088539178</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>19.40421657542136</v>
+        <v>18.37185810360858</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>24.98959754619047</v>
+        <v>22.25102904650648</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>5.393457382762314</v>
+        <v>5.438213889190873</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>36.01638558425793</v>
+        <v>31.86199733402802</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>48.13826575894791</v>
+        <v>45.0731076377934</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>33.32579094278442</v>
+        <v>29.98674344247853</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>50.62223376857769</v>
+        <v>48.41623819510833</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>54.70573780098077</v>
+        <v>53.31622529310027</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>12.70305300720484</v>
+        <v>12.36053522993373</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>33.96474760744981</v>
+        <v>29.8042824772669</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>40.97813434830454</v>
+        <v>37.63146207795049</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>54.04919739835192</v>
+        <v>51.05179830115821</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>52.34726722234488</v>
+        <v>50.96644005022098</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>59.75119463756194</v>
+        <v>57.27957948375212</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>59.43341277516394</v>
+        <v>55.83924068358729</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>28.35349339109264</v>
+        <v>25.3167044309938</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>57.79532716814702</v>
+        <v>53.06180218713303</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>55.6620242352254</v>
+        <v>51.65180566766738</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>22.55815742245305</v>
+        <v>21.48751868302184</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>9.158739244595459</v>
+        <v>7.554448756413247</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>46.15631105477347</v>
+        <v>45.111600939788</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>48.23566657701625</v>
+        <v>44.67012138619034</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>13.57832964163942</v>
+        <v>9.017255869667178</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>65.15695874947926</v>
+        <v>62.09629259912828</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>71.29453909131799</v>
+        <v>65.29953177171554</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>73.00584401733229</v>
+        <v>69.37931792912364</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>81.2473699693321</v>
+        <v>75.44125692468286</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>84.25605107816718</v>
+        <v>77.50960694931614</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>32.15194125880389</v>
+        <v>31.10092798956442</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>76.03036961469169</v>
+        <v>72.6774777255746</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>76.36276670261071</v>
+        <v>71.86018768438686</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>57.57024502312771</v>
+        <v>54.95626240222391</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>49.6667038433112</v>
+        <v>48.07593703108435</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>53.86114093545287</v>
+        <v>51.91256291504732</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>58.57017071095953</v>
+        <v>55.91639346101822</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>21.73697686997776</v>
+        <v>19.1258175194029</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>53.95254758499096</v>
+        <v>50.28563870886282</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>54.66396579840723</v>
+        <v>50.65879878334644</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>18.69427857748332</v>
+        <v>16.85203119362805</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>38.76533569263459</v>
+        <v>32.67688129069546</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>48.43442380318644</v>
+        <v>42.20715937927129</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>7.506498363934433</v>
+        <v>6.125362081713714</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>46.06942968558199</v>
+        <v>43.31922876334048</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>51.43260776641955</v>
+        <v>45.97272378063401</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>13.21029059517715</v>
+        <v>9.486092326801081</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>67.09916244631445</v>
+        <v>63.63472311670613</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>75.80573563714519</v>
+        <v>69.73231994975507</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>75.02470758853376</v>
+        <v>71.22971748234508</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>80.45905673302281</v>
+        <v>75.87630896000374</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>88.3883341987143</v>
+        <v>81.16650139105619</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>25.05606234925119</v>
+        <v>21.51845002839725</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>74.88729631111838</v>
+        <v>71.63258644521592</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>78.18268605588466</v>
+        <v>74.76157298674057</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>51.69023305463726</v>
+        <v>49.78946126532499</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>35.70156953546673</v>
+        <v>33.49996975789844</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>43.11415719979833</v>
+        <v>39.25568926459377</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>48.11250247570738</v>
+        <v>43.46954076281052</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>17.63264374769266</v>
+        <v>14.32375208358438</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>47.32734890043189</v>
+        <v>45.74750710641649</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>50.79660984779748</v>
+        <v>47.55297811133249</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>15.57836246494689</v>
+        <v>13.93357465551395</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>39.07863233536171</v>
+        <v>33.5130528407749</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>52.30252222601098</v>
+        <v>45.41811475752728</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>9.269792123723384</v>
+        <v>7.573688461700737</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>44.3488706910988</v>
+        <v>41.82996599590231</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>54.44804871253541</v>
+        <v>47.57507946956933</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>11.6351808917796</v>
+        <v>7.237637341906332</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>62.28442281474095</v>
+        <v>58.78004281923288</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>76.39468434345571</v>
+        <v>69.85643948076843</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>64.1428967630595</v>
+        <v>62.88043163564993</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>76.34762226621278</v>
+        <v>73.73333721435597</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>87.87622345695307</v>
+        <v>83.00063261675841</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>19.20692716241652</v>
+        <v>15.71878382009218</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>68.26496743253747</v>
+        <v>65.51557648945663</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>78.46306782813193</v>
+        <v>75.96048708527658</v>
       </c>
     </row>
   </sheetData>
